--- a/PM4MAto/bin/Debug/DATA/DS Ban dau.xlsx
+++ b/PM4MAto/bin/Debug/DATA/DS Ban dau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TÀI LIỆU DƯƠNG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\pm4\PM4MAto\bin\Debug\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D5B2BC-5171-4A5F-A07E-75363DDEDF3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70446E6-F1AC-4AFB-837A-48960E3EDC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4R1S CA B" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="163">
   <si>
     <t>No</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>Packing</t>
+  </si>
+  <si>
+    <t>QL</t>
   </si>
 </sst>
 </file>
@@ -843,11 +846,11 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -866,11 +869,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -878,112 +881,112 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_01a- Form to khai BHXH (CHUAN).." xfId="1" xr:uid="{39B34390-346F-477C-84A1-C6DDE9CE653E}"/>
     <cellStyle name="Normal_8.1.2010" xfId="2" xr:uid="{CFCC78E9-5AA0-43DC-897F-AAC6E2278357}"/>
   </cellStyles>
@@ -1265,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1284,92 +1287,94 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="G4" s="13" t="s">
+      <c r="E4" s="30"/>
+      <c r="G4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="16"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="22"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="23">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="G6" s="23">
+      <c r="G6" s="13">
         <v>1</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="28">
+      <c r="A7" s="18">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1379,10 +1384,12 @@
         <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="G7" s="28">
+      <c r="G7" s="18">
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1394,10 +1401,10 @@
       <c r="J7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="29"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="30">
+      <c r="A8" s="20">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1409,10 +1416,10 @@
       <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="19">
         <v>1</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="20">
         <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -1424,12 +1431,12 @@
       <c r="J8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="30">
+      <c r="A9" s="20">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1441,10 +1448,10 @@
       <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="19">
         <v>1</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="20">
         <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -1456,12 +1463,12 @@
       <c r="J9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="28">
+      <c r="A10" s="18">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1473,10 +1480,10 @@
       <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="19">
         <v>2</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="18">
         <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1488,12 +1495,12 @@
       <c r="J10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="30">
+      <c r="A11" s="20">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1505,10 +1512,10 @@
       <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="19">
         <v>3</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="20">
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1520,12 +1527,12 @@
       <c r="J11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="30">
+      <c r="A12" s="20">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1537,10 +1544,10 @@
       <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="19">
         <v>1</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="20">
         <v>7</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1552,12 +1559,12 @@
       <c r="J12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="28">
+      <c r="A13" s="18">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1569,10 +1576,10 @@
       <c r="D13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="19">
         <v>2</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="18">
         <v>8</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -1584,12 +1591,12 @@
       <c r="J13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="30">
+      <c r="A14" s="20">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1601,10 +1608,10 @@
       <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="19">
         <v>1</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="20">
         <v>9</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1616,12 +1623,12 @@
       <c r="J14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="30">
+      <c r="A15" s="20">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1633,10 +1640,10 @@
       <c r="D15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="19">
         <v>2</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="20">
         <v>10</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -1648,12 +1655,12 @@
       <c r="J15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="28">
+      <c r="A16" s="18">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1665,10 +1672,10 @@
       <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="19">
         <v>3</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="18">
         <v>11</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -1680,12 +1687,12 @@
       <c r="J16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="30">
+      <c r="A17" s="20">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1697,10 +1704,10 @@
       <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="19">
         <v>4</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="20">
         <v>12</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -1712,12 +1719,12 @@
       <c r="J17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="30">
+      <c r="A18" s="20">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1729,10 +1736,10 @@
       <c r="D18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="19">
         <v>5</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="20">
         <v>13</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -1744,12 +1751,12 @@
       <c r="J18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="28">
+      <c r="A19" s="18">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1761,10 +1768,10 @@
       <c r="D19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="29">
-        <v>6</v>
-      </c>
-      <c r="G19" s="28">
+      <c r="E19" s="19">
+        <v>6</v>
+      </c>
+      <c r="G19" s="18">
         <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -1776,12 +1783,12 @@
       <c r="J19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="30">
+      <c r="A20" s="20">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1793,10 +1800,10 @@
       <c r="D20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="19">
         <v>7</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="20">
         <v>15</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -1808,12 +1815,12 @@
       <c r="J20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="30">
+      <c r="A21" s="20">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1825,10 +1832,10 @@
       <c r="D21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="19">
         <v>8</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="20">
         <v>16</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -1840,12 +1847,12 @@
       <c r="J21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="28">
+      <c r="A22" s="18">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1857,10 +1864,10 @@
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="19">
         <v>1</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="18">
         <v>17</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -1872,12 +1879,12 @@
       <c r="J22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="30">
+      <c r="A23" s="20">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1889,10 +1896,10 @@
       <c r="D23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="19">
         <v>2</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="20">
         <v>18</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -1904,12 +1911,12 @@
       <c r="J23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="30">
+      <c r="A24" s="20">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1921,10 +1928,10 @@
       <c r="D24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="19">
         <v>3</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="20">
         <v>19</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -1936,12 +1943,12 @@
       <c r="J24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="28">
+      <c r="A25" s="18">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1953,10 +1960,10 @@
       <c r="D25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="19">
         <v>4</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="18">
         <v>20</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -1968,12 +1975,12 @@
       <c r="J25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="30">
+      <c r="A26" s="20">
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1985,10 +1992,10 @@
       <c r="D26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="19">
         <v>5</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="20">
         <v>21</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -2000,12 +2007,12 @@
       <c r="J26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="30">
+      <c r="A27" s="20">
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2017,10 +2024,10 @@
       <c r="D27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="29">
-        <v>6</v>
-      </c>
-      <c r="G27" s="30">
+      <c r="E27" s="19">
+        <v>6</v>
+      </c>
+      <c r="G27" s="20">
         <v>22</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -2032,12 +2039,12 @@
       <c r="J27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K27" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="28">
+      <c r="A28" s="18">
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2049,10 +2056,10 @@
       <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="19">
         <v>7</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="18">
         <v>23</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -2064,12 +2071,12 @@
       <c r="J28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K28" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="30">
+      <c r="A29" s="20">
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2081,10 +2088,10 @@
       <c r="D29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="19">
         <v>8</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="20">
         <v>24</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -2096,12 +2103,12 @@
       <c r="J29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K29" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="30">
+      <c r="A30" s="20">
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2113,10 +2120,10 @@
       <c r="D30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="19">
         <v>9</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="20">
         <v>25</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -2128,12 +2135,12 @@
       <c r="J30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="29">
+      <c r="K30" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="28">
+      <c r="A31" s="18">
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2145,10 +2152,10 @@
       <c r="D31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="19">
         <v>10</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="18">
         <v>26</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -2160,12 +2167,12 @@
       <c r="J31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K31" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="30">
+      <c r="A32" s="20">
         <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2177,10 +2184,10 @@
       <c r="D32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="19">
         <v>11</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="20">
         <v>27</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -2192,12 +2199,12 @@
       <c r="J32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K32" s="19">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="30">
+      <c r="A33" s="20">
         <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2209,10 +2216,10 @@
       <c r="D33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="19">
         <v>12</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="20">
         <v>28</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -2224,12 +2231,12 @@
       <c r="J33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="19">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="30">
+      <c r="A34" s="20">
         <v>29</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -2241,10 +2248,10 @@
       <c r="D34" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="21">
         <v>1</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="20">
         <v>29</v>
       </c>
       <c r="H34" s="10" t="s">
@@ -2256,12 +2263,12 @@
       <c r="J34" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="K34" s="31">
+      <c r="K34" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="28">
+      <c r="A35" s="18">
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2273,10 +2280,10 @@
       <c r="D35" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="21">
         <v>2</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="18">
         <v>30</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -2288,39 +2295,39 @@
       <c r="J35" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="K35" s="31">
+      <c r="K35" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" thickBot="1">
-      <c r="A36" s="32">
+      <c r="A36" s="22">
         <v>31</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="26">
         <v>1</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="22">
         <v>31</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="I36" s="34" t="s">
+      <c r="I36" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="J36" s="35" t="s">
+      <c r="J36" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K36" s="26">
         <v>1</v>
       </c>
     </row>
@@ -2841,7 +2848,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="H8:K32">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H8:K32">
     <sortCondition ref="J8:J32"/>
   </sortState>
   <mergeCells count="10">
@@ -2856,7 +2863,7 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="CANH BAO" error="Khong nhap du lieu vao o nay" sqref="D6:D47 E6:E53 J6:J47 K6:K53" xr:uid="{8087E7B9-D7BD-49D2-979A-ED244F751416}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
